--- a/Data Mix/ResultatExcel/HautsdeFrance.xlsx
+++ b/Data Mix/ResultatExcel/HautsdeFrance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I118"/>
+  <dimension ref="A1:J118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,30 +451,35 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Thermique</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Nucleaire</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Eolien</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Solaire</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Hydraulique</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BioEnergie</t>
         </is>
@@ -495,21 +500,24 @@
         <v>11056438</v>
       </c>
       <c r="D2" t="n">
+        <v>9610764</v>
+      </c>
+      <c r="E2" t="n">
         <v>1655356</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>7314899</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>533164</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>2851</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>1486</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>103008</v>
       </c>
     </row>
@@ -528,21 +536,24 @@
         <v>21117297</v>
       </c>
       <c r="D3" t="n">
+        <v>17803387</v>
+      </c>
+      <c r="E3" t="n">
         <v>3268757</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>13227231</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>1099551</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>10880</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>2825</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>194143</v>
       </c>
     </row>
@@ -561,21 +572,24 @@
         <v>31607933</v>
       </c>
       <c r="D4" t="n">
+        <v>25195739</v>
+      </c>
+      <c r="E4" t="n">
         <v>4808519</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>18415367</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>1648662</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>24446</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>4324</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>294421</v>
       </c>
     </row>
@@ -594,21 +608,24 @@
         <v>40300828</v>
       </c>
       <c r="D5" t="n">
+        <v>31060593</v>
+      </c>
+      <c r="E5" t="n">
         <v>5646809</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>22738568</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>2248445</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>48380</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>5768</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>372623</v>
       </c>
     </row>
@@ -627,21 +644,24 @@
         <v>48512270</v>
       </c>
       <c r="D6" t="n">
+        <v>37085120</v>
+      </c>
+      <c r="E6" t="n">
         <v>6140251</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>27683449</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>2713306</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>72397</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>7300</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>468417</v>
       </c>
     </row>
@@ -660,21 +680,24 @@
         <v>55898659</v>
       </c>
       <c r="D7" t="n">
+        <v>43386926</v>
+      </c>
+      <c r="E7" t="n">
         <v>6583265</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>32938222</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>3200161</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>99186</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>8753</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>557339</v>
       </c>
     </row>
@@ -693,21 +716,24 @@
         <v>63386338</v>
       </c>
       <c r="D8" t="n">
+        <v>50655464</v>
+      </c>
+      <c r="E8" t="n">
         <v>7143537</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>39168877</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>3539684</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>132344</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>10226</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>660796</v>
       </c>
     </row>
@@ -726,21 +752,24 @@
         <v>70107420</v>
       </c>
       <c r="D9" t="n">
+        <v>56987461</v>
+      </c>
+      <c r="E9" t="n">
         <v>7752094</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>44474720</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>3826532</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>160046</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>10692</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>763377</v>
       </c>
     </row>
@@ -759,21 +788,24 @@
         <v>77589240</v>
       </c>
       <c r="D10" t="n">
+        <v>63062877</v>
+      </c>
+      <c r="E10" t="n">
         <v>8270443</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>49579917</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>4160029</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>180648</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>11132</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>860708</v>
       </c>
     </row>
@@ -792,21 +824,24 @@
         <v>86076461</v>
       </c>
       <c r="D11" t="n">
+        <v>70787556</v>
+      </c>
+      <c r="E11" t="n">
         <v>8987308</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>55727458</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>4911542</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>192981</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>12232</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>956035</v>
       </c>
     </row>
@@ -825,21 +860,24 @@
         <v>95667858</v>
       </c>
       <c r="D12" t="n">
+        <v>79464772</v>
+      </c>
+      <c r="E12" t="n">
         <v>10413190</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>62180606</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>5581745</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>198384</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>13670</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>1077177</v>
       </c>
     </row>
@@ -858,21 +896,24 @@
         <v>105873338</v>
       </c>
       <c r="D13" t="n">
+        <v>89975539</v>
+      </c>
+      <c r="E13" t="n">
         <v>11822155</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>70226195</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>6505174</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>205284</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>15616</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>1201115</v>
       </c>
     </row>
@@ -891,21 +932,24 @@
         <v>707194080</v>
       </c>
       <c r="D14" t="n">
+        <v>575076198</v>
+      </c>
+      <c r="E14" t="n">
         <v>82491684</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>443675509</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>39967995</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>1327827</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>104024</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>7509159</v>
       </c>
     </row>
@@ -924,21 +968,24 @@
         <v>116318309</v>
       </c>
       <c r="D15" t="n">
+        <v>100177868</v>
+      </c>
+      <c r="E15" t="n">
         <v>12816352</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>78233352</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>7554980</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>211127</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>18584</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>1343473</v>
       </c>
     </row>
@@ -957,21 +1004,24 @@
         <v>125662168</v>
       </c>
       <c r="D16" t="n">
+        <v>108981644</v>
+      </c>
+      <c r="E16" t="n">
         <v>13667866</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>84919906</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>8679892</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>221441</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>21268</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>1471271</v>
       </c>
     </row>
@@ -990,21 +1040,24 @@
         <v>134881005</v>
       </c>
       <c r="D17" t="n">
+        <v>116815004</v>
+      </c>
+      <c r="E17" t="n">
         <v>14533465</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>91203673</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>9198855</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>245255</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>24244</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>1609512</v>
       </c>
     </row>
@@ -1023,21 +1076,24 @@
         <v>142918737</v>
       </c>
       <c r="D18" t="n">
+        <v>121687625</v>
+      </c>
+      <c r="E18" t="n">
         <v>14962428</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>95140970</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>9571368</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>271986</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>27024</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>1713849</v>
       </c>
     </row>
@@ -1056,21 +1112,24 @@
         <v>150819225</v>
       </c>
       <c r="D19" t="n">
+        <v>127564937</v>
+      </c>
+      <c r="E19" t="n">
         <v>15317548</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>99923254</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>10149397</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>301744</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>29977</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>1843017</v>
       </c>
     </row>
@@ -1089,21 +1148,24 @@
         <v>158136564</v>
       </c>
       <c r="D20" t="n">
+        <v>132497619</v>
+      </c>
+      <c r="E20" t="n">
         <v>15692123</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>104022463</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>10444481</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>334944</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>31644</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>1971964</v>
       </c>
     </row>
@@ -1122,21 +1184,24 @@
         <v>165606385</v>
       </c>
       <c r="D21" t="n">
+        <v>138164788</v>
+      </c>
+      <c r="E21" t="n">
         <v>16088246</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>108791125</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>10785552</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>363464</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>33244</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>2103157</v>
       </c>
     </row>
@@ -1155,21 +1220,24 @@
         <v>172380147</v>
       </c>
       <c r="D22" t="n">
+        <v>144534702</v>
+      </c>
+      <c r="E22" t="n">
         <v>16562657</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>114042123</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>11268432</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>389699</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>35251</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>2236540</v>
       </c>
     </row>
@@ -1188,21 +1256,24 @@
         <v>179928391</v>
       </c>
       <c r="D23" t="n">
+        <v>150431040</v>
+      </c>
+      <c r="E23" t="n">
         <v>16998550</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>119124352</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>11508184</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>413293</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>36600</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>2350061</v>
       </c>
     </row>
@@ -1221,21 +1292,24 @@
         <v>188279816</v>
       </c>
       <c r="D24" t="n">
+        <v>157946243</v>
+      </c>
+      <c r="E24" t="n">
         <v>17686073</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>125190015</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>12146960</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>427856</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>38019</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>2457320</v>
       </c>
     </row>
@@ -1254,21 +1328,24 @@
         <v>197293377</v>
       </c>
       <c r="D25" t="n">
+        <v>166627032</v>
+      </c>
+      <c r="E25" t="n">
         <v>18721074</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>132059010</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>12760308</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>436266</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>40805</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>2609569</v>
       </c>
     </row>
@@ -1287,21 +1364,24 @@
         <v>207599019</v>
       </c>
       <c r="D26" t="n">
+        <v>176416820</v>
+      </c>
+      <c r="E26" t="n">
         <v>19836780</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>139534491</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>13791863</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>440485</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>43745</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>2769456</v>
       </c>
     </row>
@@ -1320,21 +1400,24 @@
         <v>3354211303</v>
       </c>
       <c r="D27" t="n">
+        <v>2791997718</v>
+      </c>
+      <c r="E27" t="n">
         <v>357866530</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>2179535752</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>207796262</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>6713214</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>588453</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>39497507</v>
       </c>
     </row>
@@ -1353,21 +1436,24 @@
         <v>218452204</v>
       </c>
       <c r="D28" t="n">
+        <v>186933153</v>
+      </c>
+      <c r="E28" t="n">
         <v>21330262</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>147312432</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>14860817</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>446543</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>46721</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>2936378</v>
       </c>
     </row>
@@ -1386,21 +1472,24 @@
         <v>228317392</v>
       </c>
       <c r="D29" t="n">
+        <v>196790228</v>
+      </c>
+      <c r="E29" t="n">
         <v>22889516</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>154652519</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>15651833</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>457848</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>49412</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>3089100</v>
       </c>
     </row>
@@ -1419,21 +1508,24 @@
         <v>238108432</v>
       </c>
       <c r="D30" t="n">
+        <v>206189827</v>
+      </c>
+      <c r="E30" t="n">
         <v>24186312</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>161625556</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>16586684</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>478017</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>52551</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>3260707</v>
       </c>
     </row>
@@ -1452,21 +1544,24 @@
         <v>246379676</v>
       </c>
       <c r="D31" t="n">
+        <v>212623084</v>
+      </c>
+      <c r="E31" t="n">
         <v>24852705</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>166584029</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>17222334</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>509545</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>55510</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>3398961</v>
       </c>
     </row>
@@ -1485,21 +1580,24 @@
         <v>254071909</v>
       </c>
       <c r="D32" t="n">
+        <v>219155788</v>
+      </c>
+      <c r="E32" t="n">
         <v>25344747</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>171729035</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>17923364</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>540739</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>58486</v>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>3559417</v>
       </c>
     </row>
@@ -1518,21 +1616,24 @@
         <v>261384811</v>
       </c>
       <c r="D33" t="n">
+        <v>226451609</v>
+      </c>
+      <c r="E33" t="n">
         <v>25737802</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>177805324</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>18555122</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>578761</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>60290</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>3714310</v>
       </c>
     </row>
@@ -1551,21 +1652,24 @@
         <v>268621222</v>
       </c>
       <c r="D34" t="n">
+        <v>234204843</v>
+      </c>
+      <c r="E34" t="n">
         <v>26202212</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>184209336</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>19250335</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>610553</v>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>61585</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>3870822</v>
       </c>
     </row>
@@ -1584,21 +1688,24 @@
         <v>275209101</v>
       </c>
       <c r="D35" t="n">
+        <v>240136541</v>
+      </c>
+      <c r="E35" t="n">
         <v>26652258</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>189041710</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>19714417</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>640427</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>62117</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>4025612</v>
       </c>
     </row>
@@ -1617,21 +1724,24 @@
         <v>282782467</v>
       </c>
       <c r="D36" t="n">
+        <v>246875850</v>
+      </c>
+      <c r="E36" t="n">
         <v>27353029</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>194219862</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>20407114</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>663513</v>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>63178</v>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>4169154</v>
       </c>
     </row>
@@ -1650,21 +1760,24 @@
         <v>291437556</v>
       </c>
       <c r="D37" t="n">
+        <v>254890397</v>
+      </c>
+      <c r="E37" t="n">
         <v>28381646</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>200564206</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>20888845</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>678312</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>64466</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>4312922</v>
       </c>
     </row>
@@ -1683,21 +1796,24 @@
         <v>300377939</v>
       </c>
       <c r="D38" t="n">
+        <v>263962889</v>
+      </c>
+      <c r="E38" t="n">
         <v>29782352</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>206738864</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>22210474</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>685803</v>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>66277</v>
       </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>4479119</v>
       </c>
     </row>
@@ -1716,21 +1832,24 @@
         <v>309574717</v>
       </c>
       <c r="D39" t="n">
+        <v>274530807</v>
+      </c>
+      <c r="E39" t="n">
         <v>30966213</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>214408679</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>23727525</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>692446</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>69221</v>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>4666723</v>
       </c>
     </row>
@@ -1749,21 +1868,24 @@
         <v>9883140032</v>
       </c>
       <c r="D40" t="n">
+        <v>8346740452</v>
+      </c>
+      <c r="E40" t="n">
         <v>1029412114</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>6527963056</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>642591388</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>20408935</v>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>1886720</v>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>124478239</v>
       </c>
     </row>
@@ -1782,21 +1904,24 @@
         <v>319979743</v>
       </c>
       <c r="D41" t="n">
+        <v>284989437</v>
+      </c>
+      <c r="E41" t="n">
         <v>32413398</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>221738949</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>25219343</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>703629</v>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>72416</v>
       </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>4841702</v>
       </c>
     </row>
@@ -1815,21 +1940,24 @@
         <v>329684488</v>
       </c>
       <c r="D42" t="n">
+        <v>293533628</v>
+      </c>
+      <c r="E42" t="n">
         <v>33682119</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>227467184</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>26592111</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>718428</v>
       </c>
-      <c r="H42" t="n">
+      <c r="I42" t="n">
         <v>75199</v>
       </c>
-      <c r="I42" t="n">
+      <c r="J42" t="n">
         <v>4998587</v>
       </c>
     </row>
@@ -1848,21 +1976,24 @@
         <v>339499674</v>
       </c>
       <c r="D43" t="n">
+        <v>303447473</v>
+      </c>
+      <c r="E43" t="n">
         <v>35003428</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>234757494</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>27702140</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>741746</v>
       </c>
-      <c r="H43" t="n">
+      <c r="I43" t="n">
         <v>78952</v>
       </c>
-      <c r="I43" t="n">
+      <c r="J43" t="n">
         <v>5163713</v>
       </c>
     </row>
@@ -1881,21 +2012,24 @@
         <v>347905411</v>
       </c>
       <c r="D44" t="n">
+        <v>310390835</v>
+      </c>
+      <c r="E44" t="n">
         <v>35968733</v>
       </c>
-      <c r="E44" t="n">
+      <c r="F44" t="n">
         <v>239784228</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>28468176</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
         <v>771633</v>
       </c>
-      <c r="H44" t="n">
+      <c r="I44" t="n">
         <v>82738</v>
       </c>
-      <c r="I44" t="n">
+      <c r="J44" t="n">
         <v>5315327</v>
       </c>
     </row>
@@ -1914,21 +2048,24 @@
         <v>355499995</v>
       </c>
       <c r="D45" t="n">
+        <v>316727619</v>
+      </c>
+      <c r="E45" t="n">
         <v>36676413</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>244589991</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>29092077</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>806200</v>
       </c>
-      <c r="H45" t="n">
+      <c r="I45" t="n">
         <v>86100</v>
       </c>
-      <c r="I45" t="n">
+      <c r="J45" t="n">
         <v>5476838</v>
       </c>
     </row>
@@ -1947,21 +2084,24 @@
         <v>362887186</v>
       </c>
       <c r="D46" t="n">
+        <v>323679744</v>
+      </c>
+      <c r="E46" t="n">
         <v>37344758</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>250195287</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>29598787</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46" t="n">
         <v>835108</v>
       </c>
-      <c r="H46" t="n">
+      <c r="I46" t="n">
         <v>88978</v>
       </c>
-      <c r="I46" t="n">
+      <c r="J46" t="n">
         <v>5616826</v>
       </c>
     </row>
@@ -1980,21 +2120,24 @@
         <v>370056637</v>
       </c>
       <c r="D47" t="n">
+        <v>330291600</v>
+      </c>
+      <c r="E47" t="n">
         <v>38241165</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>255228926</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>30085584</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
         <v>872033</v>
       </c>
-      <c r="H47" t="n">
+      <c r="I47" t="n">
         <v>91952</v>
       </c>
-      <c r="I47" t="n">
+      <c r="J47" t="n">
         <v>5771940</v>
       </c>
     </row>
@@ -2013,21 +2156,24 @@
         <v>376742738</v>
       </c>
       <c r="D48" t="n">
+        <v>336788417</v>
+      </c>
+      <c r="E48" t="n">
         <v>39543595</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>259588244</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>30717625</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
         <v>907304</v>
       </c>
-      <c r="H48" t="n">
+      <c r="I48" t="n">
         <v>94333</v>
       </c>
-      <c r="I48" t="n">
+      <c r="J48" t="n">
         <v>5937316</v>
       </c>
     </row>
@@ -2046,21 +2192,24 @@
         <v>384026775</v>
       </c>
       <c r="D49" t="n">
+        <v>343563889</v>
+      </c>
+      <c r="E49" t="n">
         <v>41318625</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>263924869</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>31192490</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49" t="n">
         <v>935061</v>
       </c>
-      <c r="H49" t="n">
+      <c r="I49" t="n">
         <v>95601</v>
       </c>
-      <c r="I49" t="n">
+      <c r="J49" t="n">
         <v>6097243</v>
       </c>
     </row>
@@ -2079,21 +2228,24 @@
         <v>392485357</v>
       </c>
       <c r="D50" t="n">
+        <v>349868582</v>
+      </c>
+      <c r="E50" t="n">
         <v>42906385</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>267879612</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>31768645</v>
       </c>
-      <c r="G50" t="n">
+      <c r="H50" t="n">
         <v>963581</v>
       </c>
-      <c r="H50" t="n">
+      <c r="I50" t="n">
         <v>97079</v>
       </c>
-      <c r="I50" t="n">
+      <c r="J50" t="n">
         <v>6253280</v>
       </c>
     </row>
@@ -2112,21 +2264,24 @@
         <v>402008579</v>
       </c>
       <c r="D51" t="n">
+        <v>357529605</v>
+      </c>
+      <c r="E51" t="n">
         <v>45181885</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>272024657</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>32836342</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
         <v>975827</v>
       </c>
-      <c r="H51" t="n">
+      <c r="I51" t="n">
         <v>98686</v>
       </c>
-      <c r="I51" t="n">
+      <c r="J51" t="n">
         <v>6412208</v>
       </c>
     </row>
@@ -2145,21 +2300,24 @@
         <v>412300414</v>
       </c>
       <c r="D52" t="n">
+        <v>365908198</v>
+      </c>
+      <c r="E52" t="n">
         <v>47819923</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>276820019</v>
       </c>
-      <c r="F52" t="n">
+      <c r="G52" t="n">
         <v>33614469</v>
       </c>
-      <c r="G52" t="n">
+      <c r="H52" t="n">
         <v>988415</v>
       </c>
-      <c r="H52" t="n">
+      <c r="I52" t="n">
         <v>100172</v>
       </c>
-      <c r="I52" t="n">
+      <c r="J52" t="n">
         <v>6565200</v>
       </c>
     </row>
@@ -2178,21 +2336,24 @@
         <v>24159357061</v>
       </c>
       <c r="D53" t="n">
+        <v>20610199931</v>
+      </c>
+      <c r="E53" t="n">
         <v>2524924655</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>16069925572</v>
       </c>
-      <c r="F53" t="n">
+      <c r="G53" t="n">
         <v>1642070565</v>
       </c>
-      <c r="G53" t="n">
+      <c r="H53" t="n">
         <v>51036835</v>
       </c>
-      <c r="H53" t="n">
+      <c r="I53" t="n">
         <v>4835646</v>
       </c>
-      <c r="I53" t="n">
+      <c r="J53" t="n">
         <v>317406658</v>
       </c>
     </row>
@@ -2211,21 +2372,24 @@
         <v>423692805</v>
       </c>
       <c r="D54" t="n">
+        <v>375741807</v>
+      </c>
+      <c r="E54" t="n">
         <v>50554763</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>282904918</v>
       </c>
-      <c r="F54" t="n">
+      <c r="G54" t="n">
         <v>34457207</v>
       </c>
-      <c r="G54" t="n">
+      <c r="H54" t="n">
         <v>996121</v>
       </c>
-      <c r="H54" t="n">
+      <c r="I54" t="n">
         <v>101979</v>
       </c>
-      <c r="I54" t="n">
+      <c r="J54" t="n">
         <v>6726819</v>
       </c>
     </row>
@@ -2244,21 +2408,24 @@
         <v>432922522</v>
       </c>
       <c r="D55" t="n">
+        <v>384475420</v>
+      </c>
+      <c r="E55" t="n">
         <v>52994652</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>287817803</v>
       </c>
-      <c r="F55" t="n">
+      <c r="G55" t="n">
         <v>35663503</v>
       </c>
-      <c r="G55" t="n">
+      <c r="H55" t="n">
         <v>1004538</v>
       </c>
-      <c r="H55" t="n">
+      <c r="I55" t="n">
         <v>104665</v>
       </c>
-      <c r="I55" t="n">
+      <c r="J55" t="n">
         <v>6890259</v>
       </c>
     </row>
@@ -2277,21 +2444,24 @@
         <v>442051945</v>
       </c>
       <c r="D56" t="n">
+        <v>393578659</v>
+      </c>
+      <c r="E56" t="n">
         <v>55122576</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>293202018</v>
       </c>
-      <c r="F56" t="n">
+      <c r="G56" t="n">
         <v>37055130</v>
       </c>
-      <c r="G56" t="n">
+      <c r="H56" t="n">
         <v>1025610</v>
       </c>
-      <c r="H56" t="n">
+      <c r="I56" t="n">
         <v>107514</v>
       </c>
-      <c r="I56" t="n">
+      <c r="J56" t="n">
         <v>7065811</v>
       </c>
     </row>
@@ -2310,21 +2480,24 @@
         <v>450092345</v>
       </c>
       <c r="D57" t="n">
+        <v>400224906</v>
+      </c>
+      <c r="E57" t="n">
         <v>56659057</v>
       </c>
-      <c r="E57" t="n">
+      <c r="F57" t="n">
         <v>297550021</v>
       </c>
-      <c r="F57" t="n">
+      <c r="G57" t="n">
         <v>37622565</v>
       </c>
-      <c r="G57" t="n">
+      <c r="H57" t="n">
         <v>1056899</v>
       </c>
-      <c r="H57" t="n">
+      <c r="I57" t="n">
         <v>110367</v>
       </c>
-      <c r="I57" t="n">
+      <c r="J57" t="n">
         <v>7225997</v>
       </c>
     </row>
@@ -2343,21 +2516,24 @@
         <v>457840050</v>
       </c>
       <c r="D58" t="n">
+        <v>407277251</v>
+      </c>
+      <c r="E58" t="n">
         <v>57735372</v>
       </c>
-      <c r="E58" t="n">
+      <c r="F58" t="n">
         <v>302671532</v>
       </c>
-      <c r="F58" t="n">
+      <c r="G58" t="n">
         <v>38276310</v>
       </c>
-      <c r="G58" t="n">
+      <c r="H58" t="n">
         <v>1091146</v>
       </c>
-      <c r="H58" t="n">
+      <c r="I58" t="n">
         <v>112082</v>
       </c>
-      <c r="I58" t="n">
+      <c r="J58" t="n">
         <v>7390809</v>
       </c>
     </row>
@@ -2376,21 +2552,24 @@
         <v>465086435</v>
       </c>
       <c r="D59" t="n">
+        <v>413857676</v>
+      </c>
+      <c r="E59" t="n">
         <v>58771289</v>
       </c>
-      <c r="E59" t="n">
+      <c r="F59" t="n">
         <v>307230081</v>
       </c>
-      <c r="F59" t="n">
+      <c r="G59" t="n">
         <v>39067581</v>
       </c>
-      <c r="G59" t="n">
+      <c r="H59" t="n">
         <v>1130063</v>
       </c>
-      <c r="H59" t="n">
+      <c r="I59" t="n">
         <v>113189</v>
       </c>
-      <c r="I59" t="n">
+      <c r="J59" t="n">
         <v>7545473</v>
       </c>
     </row>
@@ -2409,21 +2588,24 @@
         <v>472269050</v>
       </c>
       <c r="D60" t="n">
+        <v>420055024</v>
+      </c>
+      <c r="E60" t="n">
         <v>60438714</v>
       </c>
-      <c r="E60" t="n">
+      <c r="F60" t="n">
         <v>310738112</v>
       </c>
-      <c r="F60" t="n">
+      <c r="G60" t="n">
         <v>39884254</v>
       </c>
-      <c r="G60" t="n">
+      <c r="H60" t="n">
         <v>1163744</v>
       </c>
-      <c r="H60" t="n">
+      <c r="I60" t="n">
         <v>113584</v>
       </c>
-      <c r="I60" t="n">
+      <c r="J60" t="n">
         <v>7716616</v>
       </c>
     </row>
@@ -2442,21 +2624,24 @@
         <v>479010590</v>
       </c>
       <c r="D61" t="n">
+        <v>427595596</v>
+      </c>
+      <c r="E61" t="n">
         <v>61623299</v>
       </c>
-      <c r="E61" t="n">
+      <c r="F61" t="n">
         <v>316320975</v>
       </c>
-      <c r="F61" t="n">
+      <c r="G61" t="n">
         <v>40453348</v>
       </c>
-      <c r="G61" t="n">
+      <c r="H61" t="n">
         <v>1193809</v>
       </c>
-      <c r="H61" t="n">
+      <c r="I61" t="n">
         <v>114020</v>
       </c>
-      <c r="I61" t="n">
+      <c r="J61" t="n">
         <v>7890145</v>
       </c>
     </row>
@@ -2475,21 +2660,24 @@
         <v>486557040</v>
       </c>
       <c r="D62" t="n">
+        <v>436001980</v>
+      </c>
+      <c r="E62" t="n">
         <v>62847068</v>
       </c>
-      <c r="E62" t="n">
+      <c r="F62" t="n">
         <v>322522479</v>
       </c>
-      <c r="F62" t="n">
+      <c r="G62" t="n">
         <v>41245042</v>
       </c>
-      <c r="G62" t="n">
+      <c r="H62" t="n">
         <v>1217391</v>
       </c>
-      <c r="H62" t="n">
+      <c r="I62" t="n">
         <v>115084</v>
       </c>
-      <c r="I62" t="n">
+      <c r="J62" t="n">
         <v>8054916</v>
       </c>
     </row>
@@ -2508,21 +2696,24 @@
         <v>494749896</v>
       </c>
       <c r="D63" t="n">
+        <v>444151445</v>
+      </c>
+      <c r="E63" t="n">
         <v>64809545</v>
       </c>
-      <c r="E63" t="n">
+      <c r="F63" t="n">
         <v>327365822</v>
       </c>
-      <c r="F63" t="n">
+      <c r="G63" t="n">
         <v>42431514</v>
       </c>
-      <c r="G63" t="n">
+      <c r="H63" t="n">
         <v>1234332</v>
       </c>
-      <c r="H63" t="n">
+      <c r="I63" t="n">
         <v>116607</v>
       </c>
-      <c r="I63" t="n">
+      <c r="J63" t="n">
         <v>8193625</v>
       </c>
     </row>
@@ -2541,21 +2732,24 @@
         <v>504241767</v>
       </c>
       <c r="D64" t="n">
+        <v>453589968</v>
+      </c>
+      <c r="E64" t="n">
         <v>67379799</v>
       </c>
-      <c r="E64" t="n">
+      <c r="F64" t="n">
         <v>332995503</v>
       </c>
-      <c r="F64" t="n">
+      <c r="G64" t="n">
         <v>43474276</v>
       </c>
-      <c r="G64" t="n">
+      <c r="H64" t="n">
         <v>1244309</v>
       </c>
-      <c r="H64" t="n">
+      <c r="I64" t="n">
         <v>118818</v>
       </c>
-      <c r="I64" t="n">
+      <c r="J64" t="n">
         <v>8377263</v>
       </c>
     </row>
@@ -2574,21 +2768,24 @@
         <v>514898089</v>
       </c>
       <c r="D65" t="n">
+        <v>464614897</v>
+      </c>
+      <c r="E65" t="n">
         <v>69836779</v>
       </c>
-      <c r="E65" t="n">
+      <c r="F65" t="n">
         <v>339672313</v>
       </c>
-      <c r="F65" t="n">
+      <c r="G65" t="n">
         <v>45161224</v>
       </c>
-      <c r="G65" t="n">
+      <c r="H65" t="n">
         <v>1249393</v>
       </c>
-      <c r="H65" t="n">
+      <c r="I65" t="n">
         <v>121740</v>
       </c>
-      <c r="I65" t="n">
+      <c r="J65" t="n">
         <v>8573448</v>
       </c>
     </row>
@@ -2607,21 +2804,24 @@
         <v>53942126656</v>
       </c>
       <c r="D66" t="n">
+        <v>46241564491</v>
+      </c>
+      <c r="E66" t="n">
         <v>5768622223</v>
       </c>
-      <c r="E66" t="n">
+      <c r="F66" t="n">
         <v>35860842721</v>
       </c>
-      <c r="F66" t="n">
+      <c r="G66" t="n">
         <v>3758933084</v>
       </c>
-      <c r="G66" t="n">
+      <c r="H66" t="n">
         <v>115681025</v>
       </c>
-      <c r="H66" t="n">
+      <c r="I66" t="n">
         <v>11020941</v>
       </c>
-      <c r="I66" t="n">
+      <c r="J66" t="n">
         <v>726464497</v>
       </c>
     </row>
@@ -2640,21 +2840,24 @@
         <v>525848802</v>
       </c>
       <c r="D67" t="n">
+        <v>476041505</v>
+      </c>
+      <c r="E67" t="n">
         <v>71239694</v>
       </c>
-      <c r="E67" t="n">
+      <c r="F67" t="n">
         <v>347525307</v>
       </c>
-      <c r="F67" t="n">
+      <c r="G67" t="n">
         <v>47148166</v>
       </c>
-      <c r="G67" t="n">
+      <c r="H67" t="n">
         <v>1252914</v>
       </c>
-      <c r="H67" t="n">
+      <c r="I67" t="n">
         <v>124160</v>
       </c>
-      <c r="I67" t="n">
+      <c r="J67" t="n">
         <v>8751264</v>
       </c>
     </row>
@@ -2673,21 +2876,24 @@
         <v>535933787</v>
       </c>
       <c r="D68" t="n">
+        <v>487064427</v>
+      </c>
+      <c r="E68" t="n">
         <v>73506470</v>
       </c>
-      <c r="E68" t="n">
+      <c r="F68" t="n">
         <v>354589550</v>
       </c>
-      <c r="F68" t="n">
+      <c r="G68" t="n">
         <v>48655148</v>
       </c>
-      <c r="G68" t="n">
+      <c r="H68" t="n">
         <v>1269977</v>
       </c>
-      <c r="H68" t="n">
+      <c r="I68" t="n">
         <v>126710</v>
       </c>
-      <c r="I68" t="n">
+      <c r="J68" t="n">
         <v>8916572</v>
       </c>
     </row>
@@ -2706,21 +2912,24 @@
         <v>545848064</v>
       </c>
       <c r="D69" t="n">
+        <v>497284538</v>
+      </c>
+      <c r="E69" t="n">
         <v>75316934</v>
       </c>
-      <c r="E69" t="n">
+      <c r="F69" t="n">
         <v>361276431</v>
       </c>
-      <c r="F69" t="n">
+      <c r="G69" t="n">
         <v>50182330</v>
       </c>
-      <c r="G69" t="n">
+      <c r="H69" t="n">
         <v>1285790</v>
       </c>
-      <c r="H69" t="n">
+      <c r="I69" t="n">
         <v>130053</v>
       </c>
-      <c r="I69" t="n">
+      <c r="J69" t="n">
         <v>9093000</v>
       </c>
     </row>
@@ -2739,21 +2948,24 @@
         <v>553534333</v>
       </c>
       <c r="D70" t="n">
+        <v>504285489</v>
+      </c>
+      <c r="E70" t="n">
         <v>76129147</v>
       </c>
-      <c r="E70" t="n">
+      <c r="F70" t="n">
         <v>366189904</v>
       </c>
-      <c r="F70" t="n">
+      <c r="G70" t="n">
         <v>51250245</v>
       </c>
-      <c r="G70" t="n">
+      <c r="H70" t="n">
         <v>1313853</v>
       </c>
-      <c r="H70" t="n">
+      <c r="I70" t="n">
         <v>133212</v>
       </c>
-      <c r="I70" t="n">
+      <c r="J70" t="n">
         <v>9269128</v>
       </c>
     </row>
@@ -2772,21 +2984,24 @@
         <v>560893231</v>
       </c>
       <c r="D71" t="n">
+        <v>510768056</v>
+      </c>
+      <c r="E71" t="n">
         <v>76675241</v>
       </c>
-      <c r="E71" t="n">
+      <c r="F71" t="n">
         <v>371130689</v>
       </c>
-      <c r="F71" t="n">
+      <c r="G71" t="n">
         <v>52021923</v>
       </c>
-      <c r="G71" t="n">
+      <c r="H71" t="n">
         <v>1351877</v>
       </c>
-      <c r="H71" t="n">
+      <c r="I71" t="n">
         <v>136186</v>
       </c>
-      <c r="I71" t="n">
+      <c r="J71" t="n">
         <v>9452140</v>
       </c>
     </row>
@@ -2805,21 +3020,24 @@
         <v>567953182</v>
       </c>
       <c r="D72" t="n">
+        <v>516884663</v>
+      </c>
+      <c r="E72" t="n">
         <v>77411924</v>
       </c>
-      <c r="E72" t="n">
+      <c r="F72" t="n">
         <v>375597718</v>
       </c>
-      <c r="F72" t="n">
+      <c r="G72" t="n">
         <v>52727610</v>
       </c>
-      <c r="G72" t="n">
+      <c r="H72" t="n">
         <v>1388310</v>
       </c>
-      <c r="H72" t="n">
+      <c r="I72" t="n">
         <v>139055</v>
       </c>
-      <c r="I72" t="n">
+      <c r="J72" t="n">
         <v>9620046</v>
       </c>
     </row>
@@ -2838,21 +3056,24 @@
         <v>575187314</v>
       </c>
       <c r="D73" t="n">
+        <v>524203889</v>
+      </c>
+      <c r="E73" t="n">
         <v>78928291</v>
       </c>
-      <c r="E73" t="n">
+      <c r="F73" t="n">
         <v>380642597</v>
       </c>
-      <c r="F73" t="n">
+      <c r="G73" t="n">
         <v>53259946</v>
       </c>
-      <c r="G73" t="n">
+      <c r="H73" t="n">
         <v>1428796</v>
       </c>
-      <c r="H73" t="n">
+      <c r="I73" t="n">
         <v>140725</v>
       </c>
-      <c r="I73" t="n">
+      <c r="J73" t="n">
         <v>9803534</v>
       </c>
     </row>
@@ -2871,21 +3092,24 @@
         <v>581894359</v>
       </c>
       <c r="D74" t="n">
+        <v>531240142</v>
+      </c>
+      <c r="E74" t="n">
         <v>80498929</v>
       </c>
-      <c r="E74" t="n">
+      <c r="F74" t="n">
         <v>385116130</v>
       </c>
-      <c r="F74" t="n">
+      <c r="G74" t="n">
         <v>54024445</v>
       </c>
-      <c r="G74" t="n">
+      <c r="H74" t="n">
         <v>1464844</v>
       </c>
-      <c r="H74" t="n">
+      <c r="I74" t="n">
         <v>141972</v>
       </c>
-      <c r="I74" t="n">
+      <c r="J74" t="n">
         <v>9993822</v>
       </c>
     </row>
@@ -2904,21 +3128,24 @@
         <v>589174137</v>
       </c>
       <c r="D75" t="n">
+        <v>536885039</v>
+      </c>
+      <c r="E75" t="n">
         <v>81585233</v>
       </c>
-      <c r="E75" t="n">
+      <c r="F75" t="n">
         <v>388636420</v>
       </c>
-      <c r="F75" t="n">
+      <c r="G75" t="n">
         <v>54859171</v>
       </c>
-      <c r="G75" t="n">
+      <c r="H75" t="n">
         <v>1495336</v>
       </c>
-      <c r="H75" t="n">
+      <c r="I75" t="n">
         <v>142166</v>
       </c>
-      <c r="I75" t="n">
+      <c r="J75" t="n">
         <v>10166713</v>
       </c>
     </row>
@@ -2937,21 +3164,24 @@
         <v>597457749</v>
       </c>
       <c r="D76" t="n">
+        <v>545842261</v>
+      </c>
+      <c r="E76" t="n">
         <v>82941531</v>
       </c>
-      <c r="E76" t="n">
+      <c r="F76" t="n">
         <v>394851465</v>
       </c>
-      <c r="F76" t="n">
+      <c r="G76" t="n">
         <v>56056630</v>
       </c>
-      <c r="G76" t="n">
+      <c r="H76" t="n">
         <v>1520596</v>
       </c>
-      <c r="H76" t="n">
+      <c r="I76" t="n">
         <v>142184</v>
       </c>
-      <c r="I76" t="n">
+      <c r="J76" t="n">
         <v>10329855</v>
       </c>
     </row>
@@ -2970,21 +3200,24 @@
         <v>606889723</v>
       </c>
       <c r="D77" t="n">
+        <v>556083924</v>
+      </c>
+      <c r="E77" t="n">
         <v>85439637</v>
       </c>
-      <c r="E77" t="n">
+      <c r="F77" t="n">
         <v>400891501</v>
       </c>
-      <c r="F77" t="n">
+      <c r="G77" t="n">
         <v>57580147</v>
       </c>
-      <c r="G77" t="n">
+      <c r="H77" t="n">
         <v>1535384</v>
       </c>
-      <c r="H77" t="n">
+      <c r="I77" t="n">
         <v>142893</v>
       </c>
-      <c r="I77" t="n">
+      <c r="J77" t="n">
         <v>10494362</v>
       </c>
     </row>
@@ -3003,21 +3236,24 @@
         <v>616713137</v>
       </c>
       <c r="D78" t="n">
+        <v>568065483</v>
+      </c>
+      <c r="E78" t="n">
         <v>87412001</v>
       </c>
-      <c r="E78" t="n">
+      <c r="F78" t="n">
         <v>408761198</v>
       </c>
-      <c r="F78" t="n">
+      <c r="G78" t="n">
         <v>59547716</v>
       </c>
-      <c r="G78" t="n">
+      <c r="H78" t="n">
         <v>1538724</v>
       </c>
-      <c r="H78" t="n">
+      <c r="I78" t="n">
         <v>145755</v>
       </c>
-      <c r="I78" t="n">
+      <c r="J78" t="n">
         <v>10660089</v>
       </c>
     </row>
@@ -3036,21 +3272,24 @@
         <v>114741581130</v>
       </c>
       <c r="D79" t="n">
+        <v>98737778398</v>
+      </c>
+      <c r="E79" t="n">
         <v>12484329478</v>
       </c>
-      <c r="E79" t="n">
+      <c r="F79" t="n">
         <v>76256894352</v>
       </c>
-      <c r="F79" t="n">
+      <c r="G79" t="n">
         <v>8155179645</v>
       </c>
-      <c r="G79" t="n">
+      <c r="H79" t="n">
         <v>248208451</v>
       </c>
-      <c r="H79" t="n">
+      <c r="I79" t="n">
         <v>23686953</v>
       </c>
-      <c r="I79" t="n">
+      <c r="J79" t="n">
         <v>1569479519</v>
       </c>
     </row>
@@ -3069,21 +3308,24 @@
         <v>627467227</v>
       </c>
       <c r="D80" t="n">
+        <v>580678491</v>
+      </c>
+      <c r="E80" t="n">
         <v>90183667</v>
       </c>
-      <c r="E80" t="n">
+      <c r="F80" t="n">
         <v>416830779</v>
       </c>
-      <c r="F80" t="n">
+      <c r="G80" t="n">
         <v>61123915</v>
       </c>
-      <c r="G80" t="n">
+      <c r="H80" t="n">
         <v>1547209</v>
       </c>
-      <c r="H80" t="n">
+      <c r="I80" t="n">
         <v>148728</v>
       </c>
-      <c r="I80" t="n">
+      <c r="J80" t="n">
         <v>10844193</v>
       </c>
     </row>
@@ -3102,21 +3344,24 @@
         <v>636493890</v>
       </c>
       <c r="D81" t="n">
+        <v>591155730</v>
+      </c>
+      <c r="E81" t="n">
         <v>92341286</v>
       </c>
-      <c r="E81" t="n">
+      <c r="F81" t="n">
         <v>423500141</v>
       </c>
-      <c r="F81" t="n">
+      <c r="G81" t="n">
         <v>62594217</v>
       </c>
-      <c r="G81" t="n">
+      <c r="H81" t="n">
         <v>1566822</v>
       </c>
-      <c r="H81" t="n">
+      <c r="I81" t="n">
         <v>151439</v>
       </c>
-      <c r="I81" t="n">
+      <c r="J81" t="n">
         <v>11001825</v>
       </c>
     </row>
@@ -3135,21 +3380,24 @@
         <v>645728192</v>
       </c>
       <c r="D82" t="n">
+        <v>601783492</v>
+      </c>
+      <c r="E82" t="n">
         <v>93863535</v>
       </c>
-      <c r="E82" t="n">
+      <c r="F82" t="n">
         <v>429979088</v>
       </c>
-      <c r="F82" t="n">
+      <c r="G82" t="n">
         <v>65014172</v>
       </c>
-      <c r="G82" t="n">
+      <c r="H82" t="n">
         <v>1592837</v>
       </c>
-      <c r="H82" t="n">
+      <c r="I82" t="n">
         <v>154417</v>
       </c>
-      <c r="I82" t="n">
+      <c r="J82" t="n">
         <v>11179443</v>
       </c>
     </row>
@@ -3168,21 +3416,24 @@
         <v>653768664</v>
       </c>
       <c r="D83" t="n">
+        <v>609574491</v>
+      </c>
+      <c r="E83" t="n">
         <v>95109010</v>
       </c>
-      <c r="E83" t="n">
+      <c r="F83" t="n">
         <v>435213111</v>
       </c>
-      <c r="F83" t="n">
+      <c r="G83" t="n">
         <v>66120715</v>
       </c>
-      <c r="G83" t="n">
+      <c r="H83" t="n">
         <v>1624479</v>
       </c>
-      <c r="H83" t="n">
+      <c r="I83" t="n">
         <v>158127</v>
       </c>
-      <c r="I83" t="n">
+      <c r="J83" t="n">
         <v>11349049</v>
       </c>
     </row>
@@ -3201,21 +3452,24 @@
         <v>661524796</v>
       </c>
       <c r="D84" t="n">
+        <v>616578948</v>
+      </c>
+      <c r="E84" t="n">
         <v>95939735</v>
       </c>
-      <c r="E84" t="n">
+      <c r="F84" t="n">
         <v>440194370</v>
       </c>
-      <c r="F84" t="n">
+      <c r="G84" t="n">
         <v>67095220</v>
       </c>
-      <c r="G84" t="n">
+      <c r="H84" t="n">
         <v>1664581</v>
       </c>
-      <c r="H84" t="n">
+      <c r="I84" t="n">
         <v>161432</v>
       </c>
-      <c r="I84" t="n">
+      <c r="J84" t="n">
         <v>11523610</v>
       </c>
     </row>
@@ -3234,21 +3488,24 @@
         <v>668525016</v>
       </c>
       <c r="D85" t="n">
+        <v>622353211</v>
+      </c>
+      <c r="E85" t="n">
         <v>96975412</v>
       </c>
-      <c r="E85" t="n">
+      <c r="F85" t="n">
         <v>443689304</v>
       </c>
-      <c r="F85" t="n">
+      <c r="G85" t="n">
         <v>68120016</v>
       </c>
-      <c r="G85" t="n">
+      <c r="H85" t="n">
         <v>1707677</v>
       </c>
-      <c r="H85" t="n">
+      <c r="I85" t="n">
         <v>162741</v>
       </c>
-      <c r="I85" t="n">
+      <c r="J85" t="n">
         <v>11698061</v>
       </c>
     </row>
@@ -3267,21 +3524,24 @@
         <v>675732016</v>
       </c>
       <c r="D86" t="n">
+        <v>629847187</v>
+      </c>
+      <c r="E86" t="n">
         <v>98511754</v>
       </c>
-      <c r="E86" t="n">
+      <c r="F86" t="n">
         <v>448544509</v>
       </c>
-      <c r="F86" t="n">
+      <c r="G86" t="n">
         <v>68986587</v>
       </c>
-      <c r="G86" t="n">
+      <c r="H86" t="n">
         <v>1752008</v>
       </c>
-      <c r="H86" t="n">
+      <c r="I86" t="n">
         <v>163236</v>
       </c>
-      <c r="I86" t="n">
+      <c r="J86" t="n">
         <v>11889093</v>
       </c>
     </row>
@@ -3300,21 +3560,24 @@
         <v>682301916</v>
       </c>
       <c r="D87" t="n">
+        <v>637030084</v>
+      </c>
+      <c r="E87" t="n">
         <v>99853871</v>
       </c>
-      <c r="E87" t="n">
+      <c r="F87" t="n">
         <v>453250097</v>
       </c>
-      <c r="F87" t="n">
+      <c r="G87" t="n">
         <v>69892604</v>
       </c>
-      <c r="G87" t="n">
+      <c r="H87" t="n">
         <v>1792646</v>
       </c>
-      <c r="H87" t="n">
+      <c r="I87" t="n">
         <v>163363</v>
       </c>
-      <c r="I87" t="n">
+      <c r="J87" t="n">
         <v>12077503</v>
       </c>
     </row>
@@ -3333,21 +3596,24 @@
         <v>689373908</v>
       </c>
       <c r="D88" t="n">
+        <v>644530352</v>
+      </c>
+      <c r="E88" t="n">
         <v>101208546</v>
       </c>
-      <c r="E88" t="n">
+      <c r="F88" t="n">
         <v>457783411</v>
       </c>
-      <c r="F88" t="n">
+      <c r="G88" t="n">
         <v>71304073</v>
       </c>
-      <c r="G88" t="n">
+      <c r="H88" t="n">
         <v>1825327</v>
       </c>
-      <c r="H88" t="n">
+      <c r="I88" t="n">
         <v>163463</v>
       </c>
-      <c r="I88" t="n">
+      <c r="J88" t="n">
         <v>12245532</v>
       </c>
     </row>
@@ -3366,21 +3632,24 @@
         <v>697538206</v>
       </c>
       <c r="D89" t="n">
+        <v>652305779</v>
+      </c>
+      <c r="E89" t="n">
         <v>103054240</v>
       </c>
-      <c r="E89" t="n">
+      <c r="F89" t="n">
         <v>461669496</v>
       </c>
-      <c r="F89" t="n">
+      <c r="G89" t="n">
         <v>73143502</v>
       </c>
-      <c r="G89" t="n">
+      <c r="H89" t="n">
         <v>1846361</v>
       </c>
-      <c r="H89" t="n">
+      <c r="I89" t="n">
         <v>164647</v>
       </c>
-      <c r="I89" t="n">
+      <c r="J89" t="n">
         <v>12427533</v>
       </c>
     </row>
@@ -3399,21 +3668,24 @@
         <v>706717928</v>
       </c>
       <c r="D90" t="n">
+        <v>661405061</v>
+      </c>
+      <c r="E90" t="n">
         <v>105451788</v>
       </c>
-      <c r="E90" t="n">
+      <c r="F90" t="n">
         <v>466489993</v>
       </c>
-      <c r="F90" t="n">
+      <c r="G90" t="n">
         <v>74823682</v>
       </c>
-      <c r="G90" t="n">
+      <c r="H90" t="n">
         <v>1859301</v>
       </c>
-      <c r="H90" t="n">
+      <c r="I90" t="n">
         <v>167667</v>
       </c>
-      <c r="I90" t="n">
+      <c r="J90" t="n">
         <v>12612630</v>
       </c>
     </row>
@@ -3432,21 +3704,24 @@
         <v>716351282</v>
       </c>
       <c r="D91" t="n">
+        <v>672489682</v>
+      </c>
+      <c r="E91" t="n">
         <v>107286133</v>
       </c>
-      <c r="E91" t="n">
+      <c r="F91" t="n">
         <v>472916217</v>
       </c>
-      <c r="F91" t="n">
+      <c r="G91" t="n">
         <v>77443308</v>
       </c>
-      <c r="G91" t="n">
+      <c r="H91" t="n">
         <v>1871086</v>
       </c>
-      <c r="H91" t="n">
+      <c r="I91" t="n">
         <v>170839</v>
       </c>
-      <c r="I91" t="n">
+      <c r="J91" t="n">
         <v>12802099</v>
       </c>
     </row>
@@ -3465,21 +3740,24 @@
         <v>237544685301</v>
       </c>
       <c r="D92" t="n">
+        <v>204995289304</v>
+      </c>
+      <c r="E92" t="n">
         <v>26148437933</v>
       </c>
-      <c r="E92" t="n">
+      <c r="F92" t="n">
         <v>157863849220</v>
       </c>
-      <c r="F92" t="n">
+      <c r="G92" t="n">
         <v>17136021301</v>
       </c>
-      <c r="G92" t="n">
+      <c r="H92" t="n">
         <v>517067236</v>
       </c>
-      <c r="H92" t="n">
+      <c r="I92" t="n">
         <v>49304005</v>
       </c>
-      <c r="I92" t="n">
+      <c r="J92" t="n">
         <v>3280609609</v>
       </c>
     </row>
@@ -3498,21 +3776,24 @@
         <v>726464880</v>
       </c>
       <c r="D93" t="n">
+        <v>683841068</v>
+      </c>
+      <c r="E93" t="n">
         <v>109886272</v>
       </c>
-      <c r="E93" t="n">
+      <c r="F93" t="n">
         <v>479127380</v>
       </c>
-      <c r="F93" t="n">
+      <c r="G93" t="n">
         <v>79782284</v>
       </c>
-      <c r="G93" t="n">
+      <c r="H93" t="n">
         <v>1881012</v>
       </c>
-      <c r="H93" t="n">
+      <c r="I93" t="n">
         <v>174610</v>
       </c>
-      <c r="I93" t="n">
+      <c r="J93" t="n">
         <v>12989510</v>
       </c>
     </row>
@@ -3531,21 +3812,24 @@
         <v>735678936</v>
       </c>
       <c r="D94" t="n">
+        <v>695038808</v>
+      </c>
+      <c r="E94" t="n">
         <v>111538547</v>
       </c>
-      <c r="E94" t="n">
+      <c r="F94" t="n">
         <v>484831456</v>
       </c>
-      <c r="F94" t="n">
+      <c r="G94" t="n">
         <v>83437312</v>
       </c>
-      <c r="G94" t="n">
+      <c r="H94" t="n">
         <v>1896398</v>
       </c>
-      <c r="H94" t="n">
+      <c r="I94" t="n">
         <v>177221</v>
       </c>
-      <c r="I94" t="n">
+      <c r="J94" t="n">
         <v>13157874</v>
       </c>
     </row>
@@ -3564,21 +3848,24 @@
         <v>744541627</v>
       </c>
       <c r="D95" t="n">
+        <v>706231811</v>
+      </c>
+      <c r="E95" t="n">
         <v>113179802</v>
       </c>
-      <c r="E95" t="n">
+      <c r="F95" t="n">
         <v>491496183</v>
       </c>
-      <c r="F95" t="n">
+      <c r="G95" t="n">
         <v>86103950</v>
       </c>
-      <c r="G95" t="n">
+      <c r="H95" t="n">
         <v>1922170</v>
       </c>
-      <c r="H95" t="n">
+      <c r="I95" t="n">
         <v>179945</v>
       </c>
-      <c r="I95" t="n">
+      <c r="J95" t="n">
         <v>13349761</v>
       </c>
     </row>
@@ -3597,21 +3884,24 @@
         <v>751137530</v>
       </c>
       <c r="D96" t="n">
+        <v>714265860</v>
+      </c>
+      <c r="E96" t="n">
         <v>113607355</v>
       </c>
-      <c r="E96" t="n">
+      <c r="F96" t="n">
         <v>497666406</v>
       </c>
-      <c r="F96" t="n">
+      <c r="G96" t="n">
         <v>87319415</v>
       </c>
-      <c r="G96" t="n">
+      <c r="H96" t="n">
         <v>1961193</v>
       </c>
-      <c r="H96" t="n">
+      <c r="I96" t="n">
         <v>182828</v>
       </c>
-      <c r="I96" t="n">
+      <c r="J96" t="n">
         <v>13528663</v>
       </c>
     </row>
@@ -3630,21 +3920,24 @@
         <v>757895313</v>
       </c>
       <c r="D97" t="n">
+        <v>722973549</v>
+      </c>
+      <c r="E97" t="n">
         <v>114371299</v>
       </c>
-      <c r="E97" t="n">
+      <c r="F97" t="n">
         <v>503935876</v>
       </c>
-      <c r="F97" t="n">
+      <c r="G97" t="n">
         <v>88766780</v>
       </c>
-      <c r="G97" t="n">
+      <c r="H97" t="n">
         <v>2008718</v>
       </c>
-      <c r="H97" t="n">
+      <c r="I97" t="n">
         <v>186101</v>
       </c>
-      <c r="I97" t="n">
+      <c r="J97" t="n">
         <v>13704775</v>
       </c>
     </row>
@@ -3663,21 +3956,24 @@
         <v>764530698</v>
       </c>
       <c r="D98" t="n">
+        <v>730150043</v>
+      </c>
+      <c r="E98" t="n">
         <v>115416400</v>
       </c>
-      <c r="E98" t="n">
+      <c r="F98" t="n">
         <v>508718920</v>
       </c>
-      <c r="F98" t="n">
+      <c r="G98" t="n">
         <v>89898819</v>
       </c>
-      <c r="G98" t="n">
+      <c r="H98" t="n">
         <v>2050360</v>
       </c>
-      <c r="H98" t="n">
+      <c r="I98" t="n">
         <v>188884</v>
       </c>
-      <c r="I98" t="n">
+      <c r="J98" t="n">
         <v>13876660</v>
       </c>
     </row>
@@ -3696,21 +3992,24 @@
         <v>771501616</v>
       </c>
       <c r="D99" t="n">
+        <v>737849392</v>
+      </c>
+      <c r="E99" t="n">
         <v>116894719</v>
       </c>
-      <c r="E99" t="n">
+      <c r="F99" t="n">
         <v>513407094</v>
       </c>
-      <c r="F99" t="n">
+      <c r="G99" t="n">
         <v>91212058</v>
       </c>
-      <c r="G99" t="n">
+      <c r="H99" t="n">
         <v>2095666</v>
       </c>
-      <c r="H99" t="n">
+      <c r="I99" t="n">
         <v>190360</v>
       </c>
-      <c r="I99" t="n">
+      <c r="J99" t="n">
         <v>14049495</v>
       </c>
     </row>
@@ -3729,21 +4028,24 @@
         <v>777962171</v>
       </c>
       <c r="D100" t="n">
+        <v>746492490</v>
+      </c>
+      <c r="E100" t="n">
         <v>118608075</v>
       </c>
-      <c r="E100" t="n">
+      <c r="F100" t="n">
         <v>518906697</v>
       </c>
-      <c r="F100" t="n">
+      <c r="G100" t="n">
         <v>92416620</v>
       </c>
-      <c r="G100" t="n">
+      <c r="H100" t="n">
         <v>2138192</v>
       </c>
-      <c r="H100" t="n">
+      <c r="I100" t="n">
         <v>191035</v>
       </c>
-      <c r="I100" t="n">
+      <c r="J100" t="n">
         <v>14231871</v>
       </c>
     </row>
@@ -3762,21 +4064,24 @@
         <v>785038775</v>
       </c>
       <c r="D101" t="n">
+        <v>754177897</v>
+      </c>
+      <c r="E101" t="n">
         <v>120517467</v>
       </c>
-      <c r="E101" t="n">
+      <c r="F101" t="n">
         <v>523171181</v>
       </c>
-      <c r="F101" t="n">
+      <c r="G101" t="n">
         <v>93726573</v>
       </c>
-      <c r="G101" t="n">
+      <c r="H101" t="n">
         <v>2172818</v>
       </c>
-      <c r="H101" t="n">
+      <c r="I101" t="n">
         <v>191135</v>
       </c>
-      <c r="I101" t="n">
+      <c r="J101" t="n">
         <v>14398723</v>
       </c>
     </row>
@@ -3795,21 +4100,24 @@
         <v>793237187</v>
       </c>
       <c r="D102" t="n">
+        <v>762508859</v>
+      </c>
+      <c r="E102" t="n">
         <v>122139425</v>
       </c>
-      <c r="E102" t="n">
+      <c r="F102" t="n">
         <v>527125254</v>
       </c>
-      <c r="F102" t="n">
+      <c r="G102" t="n">
         <v>96290210</v>
       </c>
-      <c r="G102" t="n">
+      <c r="H102" t="n">
         <v>2192222</v>
       </c>
-      <c r="H102" t="n">
+      <c r="I102" t="n">
         <v>192222</v>
       </c>
-      <c r="I102" t="n">
+      <c r="J102" t="n">
         <v>14569526</v>
       </c>
     </row>
@@ -3828,21 +4136,24 @@
         <v>801714728</v>
       </c>
       <c r="D103" t="n">
+        <v>772184075</v>
+      </c>
+      <c r="E103" t="n">
         <v>124249902</v>
       </c>
-      <c r="E103" t="n">
+      <c r="F103" t="n">
         <v>532587898</v>
       </c>
-      <c r="F103" t="n">
+      <c r="G103" t="n">
         <v>98202178</v>
       </c>
-      <c r="G103" t="n">
+      <c r="H103" t="n">
         <v>2207158</v>
       </c>
-      <c r="H103" t="n">
+      <c r="I103" t="n">
         <v>193758</v>
       </c>
-      <c r="I103" t="n">
+      <c r="J103" t="n">
         <v>14743181</v>
       </c>
     </row>
@@ -3861,21 +4172,24 @@
         <v>811112188</v>
       </c>
       <c r="D104" t="n">
+        <v>782461257</v>
+      </c>
+      <c r="E104" t="n">
         <v>126330916</v>
       </c>
-      <c r="E104" t="n">
+      <c r="F104" t="n">
         <v>538122594</v>
       </c>
-      <c r="F104" t="n">
+      <c r="G104" t="n">
         <v>100661292</v>
       </c>
-      <c r="G104" t="n">
+      <c r="H104" t="n">
         <v>2217282</v>
       </c>
-      <c r="H104" t="n">
+      <c r="I104" t="n">
         <v>195928</v>
       </c>
-      <c r="I104" t="n">
+      <c r="J104" t="n">
         <v>14933245</v>
       </c>
     </row>
@@ -3894,21 +4208,24 @@
         <v>484310186251</v>
       </c>
       <c r="D105" t="n">
+        <v>418798753717</v>
+      </c>
+      <c r="E105" t="n">
         <v>53703616045</v>
       </c>
-      <c r="E105" t="n">
+      <c r="F105" t="n">
         <v>321846795379</v>
       </c>
-      <c r="F105" t="n">
+      <c r="G105" t="n">
         <v>35359860093</v>
       </c>
-      <c r="G105" t="n">
+      <c r="H105" t="n">
         <v>1058877661</v>
       </c>
-      <c r="H105" t="n">
+      <c r="I105" t="n">
         <v>100852037</v>
       </c>
-      <c r="I105" t="n">
+      <c r="J105" t="n">
         <v>6728752502</v>
       </c>
     </row>
@@ -3927,21 +4244,24 @@
         <v>821580070</v>
       </c>
       <c r="D106" t="n">
+        <v>793842927</v>
+      </c>
+      <c r="E106" t="n">
         <v>128577775</v>
       </c>
-      <c r="E106" t="n">
+      <c r="F106" t="n">
         <v>544890195</v>
       </c>
-      <c r="F106" t="n">
+      <c r="G106" t="n">
         <v>102833357</v>
       </c>
-      <c r="G106" t="n">
+      <c r="H106" t="n">
         <v>2223613</v>
       </c>
-      <c r="H106" t="n">
+      <c r="I106" t="n">
         <v>198504</v>
       </c>
-      <c r="I106" t="n">
+      <c r="J106" t="n">
         <v>15119483</v>
       </c>
     </row>
@@ -3960,21 +4280,24 @@
         <v>830592879</v>
       </c>
       <c r="D107" t="n">
+        <v>803171473</v>
+      </c>
+      <c r="E107" t="n">
         <v>130310008</v>
       </c>
-      <c r="E107" t="n">
+      <c r="F107" t="n">
         <v>549918167</v>
       </c>
-      <c r="F107" t="n">
+      <c r="G107" t="n">
         <v>105226088</v>
       </c>
-      <c r="G107" t="n">
+      <c r="H107" t="n">
         <v>2243716</v>
       </c>
-      <c r="H107" t="n">
+      <c r="I107" t="n">
         <v>200666</v>
       </c>
-      <c r="I107" t="n">
+      <c r="J107" t="n">
         <v>15272828</v>
       </c>
     </row>
@@ -3993,21 +4316,24 @@
         <v>839739429</v>
       </c>
       <c r="D108" t="n">
+        <v>813406325</v>
+      </c>
+      <c r="E108" t="n">
         <v>132344919</v>
       </c>
-      <c r="E108" t="n">
+      <c r="F108" t="n">
         <v>555734970</v>
       </c>
-      <c r="F108" t="n">
+      <c r="G108" t="n">
         <v>107406297</v>
       </c>
-      <c r="G108" t="n">
+      <c r="H108" t="n">
         <v>2267274</v>
       </c>
-      <c r="H108" t="n">
+      <c r="I108" t="n">
         <v>203642</v>
       </c>
-      <c r="I108" t="n">
+      <c r="J108" t="n">
         <v>15449223</v>
       </c>
     </row>
@@ -4026,21 +4352,24 @@
         <v>847926511</v>
       </c>
       <c r="D109" t="n">
+        <v>821939052</v>
+      </c>
+      <c r="E109" t="n">
         <v>134087704</v>
       </c>
-      <c r="E109" t="n">
+      <c r="F109" t="n">
         <v>560808930</v>
       </c>
-      <c r="F109" t="n">
+      <c r="G109" t="n">
         <v>108905825</v>
       </c>
-      <c r="G109" t="n">
+      <c r="H109" t="n">
         <v>2330340</v>
       </c>
-      <c r="H109" t="n">
+      <c r="I109" t="n">
         <v>206522</v>
       </c>
-      <c r="I109" t="n">
+      <c r="J109" t="n">
         <v>15599731</v>
       </c>
     </row>
@@ -4059,21 +4388,24 @@
         <v>855635124</v>
       </c>
       <c r="D110" t="n">
+        <v>831165154</v>
+      </c>
+      <c r="E110" t="n">
         <v>135078414</v>
       </c>
-      <c r="E110" t="n">
+      <c r="F110" t="n">
         <v>566640936</v>
       </c>
-      <c r="F110" t="n">
+      <c r="G110" t="n">
         <v>111058133</v>
       </c>
-      <c r="G110" t="n">
+      <c r="H110" t="n">
         <v>2399751</v>
       </c>
-      <c r="H110" t="n">
+      <c r="I110" t="n">
         <v>209498</v>
       </c>
-      <c r="I110" t="n">
+      <c r="J110" t="n">
         <v>15778422</v>
       </c>
     </row>
@@ -4092,21 +4424,24 @@
         <v>862501843</v>
       </c>
       <c r="D111" t="n">
+        <v>837659964</v>
+      </c>
+      <c r="E111" t="n">
         <v>136007226</v>
       </c>
-      <c r="E111" t="n">
+      <c r="F111" t="n">
         <v>571329393</v>
       </c>
-      <c r="F111" t="n">
+      <c r="G111" t="n">
         <v>111708610</v>
       </c>
-      <c r="G111" t="n">
+      <c r="H111" t="n">
         <v>2469878</v>
       </c>
-      <c r="H111" t="n">
+      <c r="I111" t="n">
         <v>212207</v>
       </c>
-      <c r="I111" t="n">
+      <c r="J111" t="n">
         <v>15932650</v>
       </c>
     </row>
@@ -4125,21 +4460,24 @@
         <v>869494349</v>
       </c>
       <c r="D112" t="n">
+        <v>845119681</v>
+      </c>
+      <c r="E112" t="n">
         <v>137181771</v>
       </c>
-      <c r="E112" t="n">
+      <c r="F112" t="n">
         <v>576200086</v>
       </c>
-      <c r="F112" t="n">
+      <c r="G112" t="n">
         <v>112872867</v>
       </c>
-      <c r="G112" t="n">
+      <c r="H112" t="n">
         <v>2548845</v>
       </c>
-      <c r="H112" t="n">
+      <c r="I112" t="n">
         <v>214941</v>
       </c>
-      <c r="I112" t="n">
+      <c r="J112" t="n">
         <v>16101171</v>
       </c>
     </row>
@@ -4158,21 +4496,24 @@
         <v>876002773</v>
       </c>
       <c r="D113" t="n">
+        <v>852065830</v>
+      </c>
+      <c r="E113" t="n">
         <v>137903823</v>
       </c>
-      <c r="E113" t="n">
+      <c r="F113" t="n">
         <v>580947429</v>
       </c>
-      <c r="F113" t="n">
+      <c r="G113" t="n">
         <v>114110289</v>
       </c>
-      <c r="G113" t="n">
+      <c r="H113" t="n">
         <v>2617932</v>
       </c>
-      <c r="H113" t="n">
+      <c r="I113" t="n">
         <v>217914</v>
       </c>
-      <c r="I113" t="n">
+      <c r="J113" t="n">
         <v>16268443</v>
       </c>
     </row>
@@ -4191,21 +4532,24 @@
         <v>883144325</v>
       </c>
       <c r="D114" t="n">
+        <v>857943255</v>
+      </c>
+      <c r="E114" t="n">
         <v>139037739</v>
       </c>
-      <c r="E114" t="n">
+      <c r="F114" t="n">
         <v>584605278</v>
       </c>
-      <c r="F114" t="n">
+      <c r="G114" t="n">
         <v>114982960</v>
       </c>
-      <c r="G114" t="n">
+      <c r="H114" t="n">
         <v>2688216</v>
       </c>
-      <c r="H114" t="n">
+      <c r="I114" t="n">
         <v>219909</v>
       </c>
-      <c r="I114" t="n">
+      <c r="J114" t="n">
         <v>16409153</v>
       </c>
     </row>
@@ -4224,21 +4568,24 @@
         <v>891338172</v>
       </c>
       <c r="D115" t="n">
+        <v>865312427</v>
+      </c>
+      <c r="E115" t="n">
         <v>140194098</v>
       </c>
-      <c r="E115" t="n">
+      <c r="F115" t="n">
         <v>588502943</v>
       </c>
-      <c r="F115" t="n">
+      <c r="G115" t="n">
         <v>117095084</v>
       </c>
-      <c r="G115" t="n">
+      <c r="H115" t="n">
         <v>2735419</v>
       </c>
-      <c r="H115" t="n">
+      <c r="I115" t="n">
         <v>221498</v>
       </c>
-      <c r="I115" t="n">
+      <c r="J115" t="n">
         <v>16563385</v>
       </c>
     </row>
@@ -4257,21 +4604,24 @@
         <v>900517554</v>
       </c>
       <c r="D116" t="n">
+        <v>873941796</v>
+      </c>
+      <c r="E116" t="n">
         <v>142667699</v>
       </c>
-      <c r="E116" t="n">
+      <c r="F116" t="n">
         <v>593032048</v>
       </c>
-      <c r="F116" t="n">
+      <c r="G116" t="n">
         <v>118536154</v>
       </c>
-      <c r="G116" t="n">
+      <c r="H116" t="n">
         <v>2758302</v>
       </c>
-      <c r="H116" t="n">
+      <c r="I116" t="n">
         <v>223918</v>
       </c>
-      <c r="I116" t="n">
+      <c r="J116" t="n">
         <v>16723675</v>
       </c>
     </row>
@@ -4290,21 +4640,24 @@
         <v>910257035</v>
       </c>
       <c r="D117" t="n">
+        <v>883467663</v>
+      </c>
+      <c r="E117" t="n">
         <v>144940917</v>
       </c>
-      <c r="E117" t="n">
+      <c r="F117" t="n">
         <v>597736262</v>
       </c>
-      <c r="F117" t="n">
+      <c r="G117" t="n">
         <v>120903530</v>
       </c>
-      <c r="G117" t="n">
+      <c r="H117" t="n">
         <v>2770335</v>
       </c>
-      <c r="H117" t="n">
+      <c r="I117" t="n">
         <v>226890</v>
       </c>
-      <c r="I117" t="n">
+      <c r="J117" t="n">
         <v>16889729</v>
       </c>
     </row>
@@ -4323,21 +4676,24 @@
         <v>979009102566</v>
       </c>
       <c r="D118" t="n">
+        <v>847676542981</v>
+      </c>
+      <c r="E118" t="n">
         <v>109045564183</v>
       </c>
-      <c r="E118" t="n">
+      <c r="F118" t="n">
         <v>650563937395</v>
       </c>
-      <c r="F118" t="n">
+      <c r="G118" t="n">
         <v>72065359380</v>
       </c>
-      <c r="G118" t="n">
+      <c r="H118" t="n">
         <v>2147808943</v>
       </c>
-      <c r="H118" t="n">
+      <c r="I118" t="n">
         <v>204260183</v>
       </c>
-      <c r="I118" t="n">
+      <c r="J118" t="n">
         <v>13649612897</v>
       </c>
     </row>
